--- a/medicine/Psychotrope/St-Idesbald_(bière)/St-Idesbald_(bière).xlsx
+++ b/medicine/Psychotrope/St-Idesbald_(bière)/St-Idesbald_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St-Idesbald_(bi%C3%A8re)</t>
+          <t>St-Idesbald_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La St-Idesbald est une  bière d'abbaye brassée depuis 1994 par la brasserie Huyghe située à Melle dans la province de Flandre-Orientale qui se réfère à l'abbaye des Dunes située sur la côte belge en province de Flandre occidentale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St-Idesbald_(bi%C3%A8re)</t>
+          <t>St-Idesbald_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étiquette de ces bières représente en médaillon une tête de moine de profil et les inscriptions Abbatia de Dunis-Koksijde Anno 1138, année où l'abbaye située à la limite de Coxyde et de Saint-Idesbald s'est retrouvée sous l'autorité de Bernard de Clairvaux. Le site sera détruit et abandonné en 1577.
 Avant d'être produites par la brasserie Huyghe en 1994, ces bières d'abbaye étaient brassées par la brasserie Damy à Olsene. Cette brasserie fut rachetée par la brasserie Huyghe qui poursuivit la production de la St-Idesbald blonde, double et triple.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St-Idesbald_(bi%C3%A8re)</t>
+          <t>St-Idesbald_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe quatre bières d'abbaye traditionnelles commercialisées en bouteilles de 33 cl ainsi qu'en fûts sous la protection du logo Bière belge d'Abbaye reconnue :
 St-Idesbald Blond (étiquette jaune) est une bière blonde dorée titrant 6,5 % d'alcool.
